--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E1BC6F-5861-4AE3-B3FE-B4A31E7ED203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEE92B9-E096-41EF-BAA5-E1C9AB7742FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="SegmentaciónDeDatos_Responsable">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Situación">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
   <si>
     <t>CASEN</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Fecha Actualización</t>
   </si>
   <si>
-    <t>Christian, Victor, Ian</t>
-  </si>
-  <si>
     <t>En sub-categoría son los nombres de origen</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>Archivo xlx</t>
   </si>
   <si>
-    <t>Revisión</t>
-  </si>
-  <si>
     <t>BD Wikipedia</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>Ministerio Trabajo Chile</t>
   </si>
   <si>
-    <t>https://github.com/Sud-Austral/DATA-MUNI/raw/master/MunicipioFinal.xlsx</t>
-  </si>
-  <si>
     <t>Link GitHub</t>
   </si>
   <si>
@@ -349,13 +340,100 @@
   </si>
   <si>
     <t>El nombre del archivo más la fecha  día-mes-año</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-MUNI/blob/master/MunicipioFinal.xlsx</t>
+  </si>
+  <si>
+    <t>Observatorio de Mujeres</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-AGRO/tree/master/tablas_insivumeh</t>
+  </si>
+  <si>
+    <t>DATAGENERO</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-GENERO/blob/main/observatorio_mujer_final.xlsx</t>
+  </si>
+  <si>
+    <t>DATATRANSPARENCIA</t>
+  </si>
+  <si>
+    <t>DATAHIDRO</t>
+  </si>
+  <si>
+    <t>https://www.portaltransparencia.cl/PortalPdT/web/guest/opendata</t>
+  </si>
+  <si>
+    <t>https://www.infoprobidad.cl/DatosAbiertos/Catalogos</t>
+  </si>
+  <si>
+    <t>https://www.sernac.cl/portal/619/w3-propertyvalue-65861.html#recuadros_articulo_1804_group_pvid_65476</t>
+  </si>
+  <si>
+    <t>Portal de Transparencia</t>
+  </si>
+  <si>
+    <t>Infoprobidad</t>
+  </si>
+  <si>
+    <t>https://snia.mop.gob.cl/FNE/index.php</t>
+  </si>
+  <si>
+    <t>https://dga.mop.gob.cl/productosyservicios/informacionhidrologica/Paginas/default.aspx</t>
+  </si>
+  <si>
+    <t>https://snia.mop.gob.cl/BNAConsultas/reportes</t>
+  </si>
+  <si>
+    <t>https://snia.mop.gob.cl/dgasat/pages/dgasat_param/dgasat_param.jsp?param=1</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-TRANSPARENCIA</t>
+  </si>
+  <si>
+    <t>Christian, Victor</t>
+  </si>
+  <si>
+    <t>MOP - Chile</t>
+  </si>
+  <si>
+    <t>SENAC</t>
+  </si>
+  <si>
+    <t>Hector Edwin</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-SALUD/tree/master/BD%20Enfermedades/consolidado%20final%20VIH</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-TRANSPARENCIA/tree/main/SERNAC</t>
+  </si>
+  <si>
+    <t>Se extrajeron los datos que se pudo pero los demas están en imagen</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-TRANSPARENCIA/tree/main/Archivos%20csv%20Portal%20Transparencia</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-HIDRO/tree/master/Boletines%20hidrol%C3%B3gicos%20Mensuales</t>
+  </si>
+  <si>
+    <t>Hubo problemas con el captcha</t>
+  </si>
+  <si>
+    <t>Sin Resolver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,12 +459,22 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -453,10 +541,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -490,14 +579,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="22">
     <dxf>
       <font>
         <strike val="0"/>
@@ -660,6 +776,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -758,13 +924,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>444682</xdr:colOff>
+      <xdr:colOff>277995</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1445623</xdr:colOff>
+      <xdr:colOff>897936</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -842,7 +1008,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>709613</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -914,13 +1080,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1021080</xdr:colOff>
+      <xdr:colOff>854393</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>30481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>368482</xdr:colOff>
+      <xdr:colOff>201795</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:to>
@@ -1040,8 +1206,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K40" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B7:K40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Trabajando"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
@@ -1358,33 +1530,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K40"/>
+  <dimension ref="B2:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="31.44140625" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1410,36 +1581,39 @@
         <v>63</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8">
-        <v>44141</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>88</v>
+        <v>44144</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
       <c r="K8" s="13">
         <v>44107</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1447,7 +1621,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>31</v>
@@ -1459,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K9" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>31</v>
@@ -1486,26 +1660,26 @@
         <v>44138</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K10" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>31</v>
@@ -1519,13 +1693,13 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K11" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1533,7 +1707,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>31</v>
@@ -1547,13 +1721,13 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K12" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1570,18 +1744,18 @@
         <v>44106</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K13" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1598,18 +1772,18 @@
         <v>44104</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K14" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1626,18 +1800,18 @@
         <v>44104</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K15" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1654,18 +1828,18 @@
         <v>44104</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K16" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1687,13 +1861,13 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K17" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1710,18 +1884,18 @@
         <v>44104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K18" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1738,18 +1912,18 @@
         <v>44104</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K19" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1766,18 +1940,18 @@
         <v>44104</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K20" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1794,18 +1968,18 @@
         <v>44104</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K21" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1822,18 +1996,18 @@
         <v>44104</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K22" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1848,18 +2022,18 @@
         <v>44104</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K23" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1874,18 +2048,18 @@
         <v>44104</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K24" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
@@ -1893,27 +2067,27 @@
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F25" s="8">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K25" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -1928,18 +2102,18 @@
         <v>44139</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K26" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -1948,26 +2122,26 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="9" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F27" s="8">
-        <v>44141</v>
+        <v>44147</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K27" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1993,18 +2167,18 @@
         <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K28" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
@@ -2017,21 +2191,21 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K29" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>31</v>
@@ -2040,20 +2214,20 @@
         <v>44137</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K30" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,18 +2242,18 @@
         <v>44129</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K31" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,13 +2275,13 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K32" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2121,19 +2295,21 @@
       <c r="F33" s="8">
         <v>44129</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="H33" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K33" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2155,13 +2331,13 @@
         <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K34" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>53</v>
       </c>
@@ -2175,20 +2351,20 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44141</v>
+        <v>44160</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="I35" s="11"/>
       <c r="K35" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2210,13 +2386,13 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="K36" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2238,13 +2414,13 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" t="s">
-        <v>96</v>
-      </c>
-      <c r="K37" s="15">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="K37" s="24">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2255,21 +2431,24 @@
         <v>26</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F38" s="8">
-        <v>44141</v>
+        <v>44148</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
       <c r="K38" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2280,26 +2459,29 @@
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F39" s="8">
-        <v>44141</v>
+        <v>44151</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
+      <c r="J39" s="17" t="s">
+        <v>122</v>
+      </c>
       <c r="K39" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>49</v>
@@ -2311,56 +2493,297 @@
         <v>44134</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K40" s="13">
         <v>44138</v>
       </c>
     </row>
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="8">
+        <v>44141</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="18">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="8">
+        <v>44152</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42" s="18">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="8">
+        <v>44115</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43" s="22"/>
+      <c r="J43" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K43" s="18">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="8">
+        <v>44151</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K44" s="18">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="8">
+        <v>44160</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="18">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="8">
+        <v>44153</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K46" s="18">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="8">
+        <v>44153</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J47" s="17"/>
+      <c r="K47" s="18">
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="8">
+        <v>44153</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J48" s="17"/>
+      <c r="K48" s="18">
+        <v>44147</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E8:E20 E22:E40">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+  <conditionalFormatting sqref="E8:E20 E22:E41">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E48">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"Trabajando"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"Revisión"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"Sin Información"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"Sin Resolver"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H42" r:id="rId1" xr:uid="{1FA1E704-1887-4469-A96A-7006D6C63F89}"/>
+    <hyperlink ref="H44" r:id="rId2" location="recuadros_articulo_1804_group_pvid_65476" xr:uid="{FE0A6253-BFDA-4B15-9D00-09FF5FF4548F}"/>
+    <hyperlink ref="H45" r:id="rId3" xr:uid="{76A39E55-6B63-4708-9913-A47E80136B0E}"/>
+    <hyperlink ref="H46" r:id="rId4" xr:uid="{4FECC66B-6D76-4868-B8C9-964C4175092D}"/>
+    <hyperlink ref="H48" r:id="rId5" xr:uid="{6E466A8E-CADA-4D51-9C89-52148C26FEBC}"/>
+    <hyperlink ref="H47" r:id="rId6" xr:uid="{2F9E08A6-A8E1-40AD-AB52-04666D870A86}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId4"/>
+        <x14:slicer r:id="rId10"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEE92B9-E096-41EF-BAA5-E1C9AB7742FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD3924-D23E-488C-ABA1-297492F1BD0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2351,7 +2351,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>118</v>
@@ -2624,7 +2624,7 @@
         <v>38</v>
       </c>
       <c r="F45" s="8">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>36</v>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD3924-D23E-488C-ABA1-297492F1BD0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA3E9E8-32F2-417B-8EE8-5508249166FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,13 +1207,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Trabajando"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
@@ -1534,7 +1528,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1613,7 +1607,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1643,7 +1637,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1671,7 +1665,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1699,7 +1693,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1727,7 +1721,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1755,7 +1749,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1783,7 +1777,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1811,7 +1805,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1839,7 +1833,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1867,7 +1861,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1895,7 +1889,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1923,7 +1917,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1951,7 +1945,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1979,7 +1973,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -2007,7 +2001,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2033,7 +2027,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2059,7 +2053,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2087,7 +2081,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2113,7 +2107,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2141,7 +2135,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2173,7 +2167,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2197,7 +2191,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2227,7 +2221,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2253,7 +2247,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2281,7 +2275,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2309,7 +2303,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2351,7 +2345,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44161</v>
+        <v>44166</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>118</v>
@@ -2364,7 +2358,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2392,7 +2386,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2420,7 +2414,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2448,7 +2442,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2476,7 +2470,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2504,7 +2498,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>104</v>
       </c>
@@ -2530,7 +2524,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>106</v>
       </c>
@@ -2558,7 +2552,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
@@ -2586,7 +2580,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>106</v>
       </c>
@@ -2624,7 +2618,7 @@
         <v>38</v>
       </c>
       <c r="F45" s="8">
-        <v>44161</v>
+        <v>44166</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>36</v>
@@ -2638,7 +2632,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="51" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>107</v>
       </c>
@@ -2666,7 +2660,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>107</v>
       </c>
@@ -2694,7 +2688,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>107</v>
       </c>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA3E9E8-32F2-417B-8EE8-5508249166FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B80750-80A6-4B9A-8FF7-0E19DED4D44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="131">
   <si>
     <t>CASEN</t>
   </si>
@@ -309,9 +309,6 @@
     <t>ConsTotalDelitos1.xlsx</t>
   </si>
   <si>
-    <t>ConsTotalDelitos2.xlsx</t>
-  </si>
-  <si>
     <t>Luis, Ian</t>
   </si>
   <si>
@@ -427,13 +424,22 @@
   </si>
   <si>
     <t>Sin Resolver</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-HIDRO/tree/master/DerechoAgua/Datos%20Solicitudes</t>
+  </si>
+  <si>
+    <t>Solicitudes Derecho agua</t>
+  </si>
+  <si>
+    <t>Registros Derecho Agua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +479,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -614,6 +626,136 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -771,136 +913,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1206,20 +1218,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K49" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="B7:K49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="13"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Link GitHub"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fecha Requerimiento"/>
   </tableColumns>
@@ -1524,11 +1536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K48"/>
+  <dimension ref="B2:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12:D13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1598,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
@@ -1601,7 +1613,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K8" s="13">
         <v>44107</v>
@@ -1615,7 +1627,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>31</v>
@@ -1627,11 +1639,11 @@
         <v>48</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K9" s="13">
         <v>44138</v>
@@ -1642,10 +1654,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>31</v>
@@ -1654,12 +1666,12 @@
         <v>44138</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" s="13">
         <v>44138</v>
@@ -1700,9 +1712,7 @@
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="9" t="s">
         <v>31</v>
       </c>
@@ -2101,7 +2111,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K26" s="13">
         <v>44138</v>
@@ -2345,10 +2355,10 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44166</v>
+        <v>44138</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>65</v>
@@ -2380,7 +2390,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K36" s="13">
         <v>44138</v>
@@ -2400,7 +2410,7 @@
         <v>31</v>
       </c>
       <c r="F37" s="8">
-        <v>44139</v>
+        <v>44166</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>37</v>
@@ -2408,7 +2418,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K37" s="24">
         <v>44138</v>
@@ -2436,7 +2446,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K38" s="13">
         <v>44138</v>
@@ -2464,7 +2474,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K39" s="13">
         <v>44138</v>
@@ -2500,10 +2510,10 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="9" t="s">
@@ -2513,12 +2523,12 @@
         <v>44141</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K41" s="18">
         <v>44138</v>
@@ -2526,10 +2536,10 @@
     </row>
     <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="9" t="s">
@@ -2542,11 +2552,11 @@
         <v>67</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K42" s="18">
         <v>44144</v>
@@ -2554,10 +2564,10 @@
     </row>
     <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="20" t="s">
@@ -2570,11 +2580,11 @@
         <v>36</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K43" s="18">
         <v>44144</v>
@@ -2582,10 +2592,10 @@
     </row>
     <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="20" t="s">
@@ -2595,14 +2605,14 @@
         <v>44151</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K44" s="18">
         <v>44144</v>
@@ -2610,174 +2620,208 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F45" s="8">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I45" s="14"/>
-      <c r="J45" s="17"/>
+      <c r="J45" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="K45" s="18">
-        <v>44144</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="51" x14ac:dyDescent="0.25">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F46" s="8">
-        <v>44153</v>
+        <v>44168</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>124</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I46" s="14"/>
       <c r="J46" s="17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K46" s="18">
-        <v>44145</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="51" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="20" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="F47" s="8">
         <v>44153</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>36</v>
+      <c r="G47" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J47" s="17"/>
+        <v>113</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="K47" s="18">
-        <v>44146</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" s="8">
         <v>44153</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>127</v>
+      <c r="G48" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="J48" s="17"/>
       <c r="K48" s="18">
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="8">
+        <v>44153</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" s="17"/>
+      <c r="K49" s="18">
         <v>44147</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E8:E20 E22:E41">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+  <conditionalFormatting sqref="E42:E49">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Sin Resolver"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H42" r:id="rId1" xr:uid="{1FA1E704-1887-4469-A96A-7006D6C63F89}"/>
     <hyperlink ref="H44" r:id="rId2" location="recuadros_articulo_1804_group_pvid_65476" xr:uid="{FE0A6253-BFDA-4B15-9D00-09FF5FF4548F}"/>
-    <hyperlink ref="H45" r:id="rId3" xr:uid="{76A39E55-6B63-4708-9913-A47E80136B0E}"/>
-    <hyperlink ref="H46" r:id="rId4" xr:uid="{4FECC66B-6D76-4868-B8C9-964C4175092D}"/>
-    <hyperlink ref="H48" r:id="rId5" xr:uid="{6E466A8E-CADA-4D51-9C89-52148C26FEBC}"/>
-    <hyperlink ref="H47" r:id="rId6" xr:uid="{2F9E08A6-A8E1-40AD-AB52-04666D870A86}"/>
+    <hyperlink ref="H46" r:id="rId3" xr:uid="{76A39E55-6B63-4708-9913-A47E80136B0E}"/>
+    <hyperlink ref="H47" r:id="rId4" xr:uid="{4FECC66B-6D76-4868-B8C9-964C4175092D}"/>
+    <hyperlink ref="H49" r:id="rId5" xr:uid="{6E466A8E-CADA-4D51-9C89-52148C26FEBC}"/>
+    <hyperlink ref="H48" r:id="rId6" xr:uid="{2F9E08A6-A8E1-40AD-AB52-04666D870A86}"/>
+    <hyperlink ref="H45" r:id="rId7" xr:uid="{CB563C8E-AFB0-4F8B-ADD0-C890095E8F1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId10"/>
+        <x14:slicer r:id="rId11"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B80750-80A6-4B9A-8FF7-0E19DED4D44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48593C0-141B-45A3-A5E1-13C6C56BDA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,136 +628,6 @@
   <dxfs count="22">
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -913,6 +783,136 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1218,20 +1218,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K49" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="B7:K49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K49" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B7:K49" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Trabajando"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Link GitHub"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fecha Requerimiento"/>
   </tableColumns>
@@ -1539,8 +1545,8 @@
   <dimension ref="B2:K49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1955,7 +1961,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1983,7 +1989,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2257,7 +2263,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44138</v>
+        <v>44172</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>117</v>
@@ -2368,7 +2374,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>103</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>105</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>105</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
@@ -2618,7 +2624,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
         <v>106</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>44143</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>106</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>106</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>106</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
         <v>106</v>
       </c>
@@ -2757,49 +2763,49 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E8:E20 E22:E41">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E49">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Sin Resolver"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48593C0-141B-45A3-A5E1-13C6C56BDA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734B14B-7DB5-4C4F-8EB8-947255B32A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="135">
   <si>
     <t>CASEN</t>
   </si>
@@ -433,13 +433,25 @@
   </si>
   <si>
     <t>Registros Derecho Agua</t>
+  </si>
+  <si>
+    <t>DATAELECCIONES</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/tree/master/Datos%20elecciones%20chile%20tribunalcalificador%20CL</t>
+  </si>
+  <si>
+    <t>Candidatos</t>
+  </si>
+  <si>
+    <t>Edwin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +499,12 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -557,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -618,6 +636,10 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1218,14 +1240,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K49" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B7:K49" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Trabajando"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K50" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B7:K50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
@@ -1542,11 +1558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K49"/>
+  <dimension ref="B2:K50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1625,7 +1641,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1655,7 +1671,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1683,7 +1699,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1711,7 +1727,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1737,7 +1753,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1765,7 +1781,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1793,7 +1809,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1821,7 +1837,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1849,7 +1865,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1877,7 +1893,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1905,7 +1921,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1933,7 +1949,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1961,7 +1977,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,7 +2005,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -2017,7 +2033,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2043,7 +2059,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2069,7 +2085,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2097,7 +2113,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2123,7 +2139,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2151,7 +2167,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2183,7 +2199,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2207,7 +2223,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2237,7 +2253,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2263,7 +2279,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2291,7 +2307,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,7 +2335,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2361,7 +2377,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>117</v>
@@ -2374,7 +2390,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2402,7 +2418,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2430,7 +2446,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2458,7 +2474,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2486,7 +2502,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2514,7 +2530,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>103</v>
       </c>
@@ -2540,7 +2556,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>105</v>
       </c>
@@ -2568,7 +2584,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>105</v>
       </c>
@@ -2596,7 +2612,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
@@ -2624,7 +2640,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
         <v>106</v>
       </c>
@@ -2652,7 +2668,7 @@
         <v>44143</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>106</v>
       </c>
@@ -2680,7 +2696,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="51" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>106</v>
       </c>
@@ -2708,7 +2724,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>106</v>
       </c>
@@ -2736,13 +2752,13 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+    <row r="49" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="8">
@@ -2758,6 +2774,32 @@
       <c r="J49" s="17"/>
       <c r="K49" s="18">
         <v>44147</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="8">
+        <v>44172</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" s="18">
+        <v>44165</v>
       </c>
     </row>
   </sheetData>
@@ -2817,17 +2859,18 @@
     <hyperlink ref="H49" r:id="rId5" xr:uid="{6E466A8E-CADA-4D51-9C89-52148C26FEBC}"/>
     <hyperlink ref="H48" r:id="rId6" xr:uid="{2F9E08A6-A8E1-40AD-AB52-04666D870A86}"/>
     <hyperlink ref="H45" r:id="rId7" xr:uid="{CB563C8E-AFB0-4F8B-ADD0-C890095E8F1D}"/>
+    <hyperlink ref="J50" r:id="rId8" xr:uid="{44511725-6825-4B45-852C-83ACA8E17784}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId11"/>
+        <x14:slicer r:id="rId12"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734B14B-7DB5-4C4F-8EB8-947255B32A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48593C0-141B-45A3-A5E1-13C6C56BDA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="131">
   <si>
     <t>CASEN</t>
   </si>
@@ -433,25 +433,13 @@
   </si>
   <si>
     <t>Registros Derecho Agua</t>
-  </si>
-  <si>
-    <t>DATAELECCIONES</t>
-  </si>
-  <si>
-    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/tree/master/Datos%20elecciones%20chile%20tribunalcalificador%20CL</t>
-  </si>
-  <si>
-    <t>Candidatos</t>
-  </si>
-  <si>
-    <t>Edwin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,12 +487,6 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -575,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -636,10 +618,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1240,8 +1218,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K50" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B7:K50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K49" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B7:K49" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Trabajando"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
@@ -1558,11 +1542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K50"/>
+  <dimension ref="B2:K49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1641,7 +1625,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1671,7 +1655,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1699,7 +1683,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1727,7 +1711,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1753,7 +1737,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1781,7 +1765,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1809,7 +1793,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1837,7 +1821,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1865,7 +1849,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1893,7 +1877,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1921,7 +1905,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1949,7 +1933,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1977,7 +1961,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -2005,7 +1989,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -2033,7 +2017,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2059,7 +2043,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2085,7 +2069,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2113,7 +2097,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2139,7 +2123,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,7 +2151,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2199,7 +2183,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2223,7 +2207,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2253,7 +2237,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2279,7 +2263,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2307,7 +2291,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2335,7 +2319,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2377,7 +2361,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>117</v>
@@ -2390,7 +2374,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2418,7 +2402,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2446,7 +2430,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2474,7 +2458,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2502,7 +2486,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2530,7 +2514,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>103</v>
       </c>
@@ -2556,7 +2540,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>105</v>
       </c>
@@ -2584,7 +2568,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>105</v>
       </c>
@@ -2612,7 +2596,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
@@ -2640,7 +2624,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
         <v>106</v>
       </c>
@@ -2668,7 +2652,7 @@
         <v>44143</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>106</v>
       </c>
@@ -2696,7 +2680,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>106</v>
       </c>
@@ -2724,7 +2708,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>106</v>
       </c>
@@ -2752,13 +2736,13 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="20" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="8">
@@ -2774,32 +2758,6 @@
       <c r="J49" s="17"/>
       <c r="K49" s="18">
         <v>44147</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="8">
-        <v>44172</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="K50" s="18">
-        <v>44165</v>
       </c>
     </row>
   </sheetData>
@@ -2859,18 +2817,17 @@
     <hyperlink ref="H49" r:id="rId5" xr:uid="{6E466A8E-CADA-4D51-9C89-52148C26FEBC}"/>
     <hyperlink ref="H48" r:id="rId6" xr:uid="{2F9E08A6-A8E1-40AD-AB52-04666D870A86}"/>
     <hyperlink ref="H45" r:id="rId7" xr:uid="{CB563C8E-AFB0-4F8B-ADD0-C890095E8F1D}"/>
-    <hyperlink ref="J50" r:id="rId8" xr:uid="{44511725-6825-4B45-852C-83ACA8E17784}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId12"/>
+        <x14:slicer r:id="rId11"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48593C0-141B-45A3-A5E1-13C6C56BDA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC901E3E-CF0E-406A-87A7-A424B01015CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
   <si>
     <t>CASEN</t>
   </si>
@@ -433,13 +433,25 @@
   </si>
   <si>
     <t>Registros Derecho Agua</t>
+  </si>
+  <si>
+    <t>DATAELECCIONES</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/tree/master/Datos%20elecciones%20chile%20tribunalcalificador%20CL</t>
+  </si>
+  <si>
+    <t>Candidatos</t>
+  </si>
+  <si>
+    <t>Edwin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +499,12 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -557,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -618,6 +636,10 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1218,14 +1240,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K49" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B7:K49" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Trabajando"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K50" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B7:K50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
@@ -1542,11 +1558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K49"/>
+  <dimension ref="B2:K50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1625,7 +1641,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1655,7 +1671,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1683,7 +1699,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1711,7 +1727,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1737,7 +1753,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1765,7 +1781,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1793,7 +1809,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1821,7 +1837,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1849,7 +1865,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1877,7 +1893,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1905,7 +1921,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1933,7 +1949,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1961,7 +1977,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,7 +2005,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -2017,7 +2033,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2043,7 +2059,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2069,7 +2085,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2097,7 +2113,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2123,7 +2139,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2151,7 +2167,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2183,7 +2199,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2207,7 +2223,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2237,7 +2253,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2263,7 +2279,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2291,7 +2307,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,7 +2335,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2361,7 +2377,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44172</v>
+        <v>44176</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>117</v>
@@ -2374,7 +2390,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2402,7 +2418,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2430,7 +2446,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2458,7 +2474,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2486,7 +2502,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2514,7 +2530,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>103</v>
       </c>
@@ -2540,7 +2556,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>105</v>
       </c>
@@ -2568,7 +2584,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>105</v>
       </c>
@@ -2596,7 +2612,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
@@ -2624,7 +2640,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
         <v>106</v>
       </c>
@@ -2652,7 +2668,7 @@
         <v>44143</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>106</v>
       </c>
@@ -2680,7 +2696,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="51" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>106</v>
       </c>
@@ -2708,7 +2724,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>106</v>
       </c>
@@ -2736,13 +2752,13 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+    <row r="49" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="8">
@@ -2758,6 +2774,32 @@
       <c r="J49" s="17"/>
       <c r="K49" s="18">
         <v>44147</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="8">
+        <v>44172</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" s="18">
+        <v>44165</v>
       </c>
     </row>
   </sheetData>
@@ -2817,17 +2859,18 @@
     <hyperlink ref="H49" r:id="rId5" xr:uid="{6E466A8E-CADA-4D51-9C89-52148C26FEBC}"/>
     <hyperlink ref="H48" r:id="rId6" xr:uid="{2F9E08A6-A8E1-40AD-AB52-04666D870A86}"/>
     <hyperlink ref="H45" r:id="rId7" xr:uid="{CB563C8E-AFB0-4F8B-ADD0-C890095E8F1D}"/>
+    <hyperlink ref="J50" r:id="rId8" xr:uid="{44511725-6825-4B45-852C-83ACA8E17784}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId11"/>
+        <x14:slicer r:id="rId12"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC901E3E-CF0E-406A-87A7-A424B01015CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119D2C31-3D70-4309-A3F5-BDA051713FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,7 +647,47 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1240,20 +1280,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K50" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K50" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B7:K50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Link GitHub"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fecha Requerimiento"/>
   </tableColumns>
@@ -1561,8 +1601,8 @@
   <dimension ref="B2:K50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,7 +2417,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44176</v>
+        <v>44180</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>117</v>
@@ -2805,6 +2845,20 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E8:E20 E22:E41">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+      <formula>"Trabajando"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+      <formula>"Revisión"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+      <formula>"Sin Información"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
@@ -2818,7 +2872,7 @@
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E42:E49">
     <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
@@ -2832,23 +2886,23 @@
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E49">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"Sin Resolver"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Sin Información"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"Sin Resolver"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
